--- a/images/projects/Project List.xlsx
+++ b/images/projects/Project List.xlsx
@@ -87,9 +87,6 @@
     <t>Ashtavinayak Infrastructure</t>
   </si>
   <si>
-    <t>Ashtavinayak Avenue Phase 1</t>
-  </si>
-  <si>
     <t>Ashtavinayak Avenue Phase 2</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t xml:space="preserve">Raj Residency </t>
   </si>
   <si>
-    <t>Rattan Raj Towers Phase 1</t>
-  </si>
-  <si>
     <t>Rattan Raj Towers Phase 2</t>
   </si>
   <si>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>Amrut Laxmi City Phase 2</t>
+  </si>
+  <si>
+    <t>Ashtavinayak Avenue</t>
+  </si>
+  <si>
+    <t>Rattan Raj Trinity Rudra</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>42887</v>
+        <v>43313</v>
       </c>
       <c r="F10" s="1">
         <v>84</v>
@@ -846,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -855,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -880,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -907,10 +907,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -934,13 +934,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
@@ -950,7 +950,7 @@
         <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -959,21 +959,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <v>84</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="G15" s="1">
+        <v>26</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -982,19 +984,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -1003,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1019,7 +1021,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -1028,13 +1030,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1044,7 +1046,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -1053,19 +1055,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -1074,19 +1076,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1094,19 +1096,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1114,19 +1116,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1134,13 +1136,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -1150,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1158,13 +1160,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
@@ -1174,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1182,13 +1184,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
@@ -1198,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1206,13 +1208,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
@@ -1222,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/images/projects/Project List.xlsx
+++ b/images/projects/Project List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Rattan Raj Trinity Rudra</t>
+  </si>
+  <si>
+    <t>Landscape Heritage</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,11 +254,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="F7" s="1">
         <v>140</v>
@@ -1225,6 +1242,29 @@
       </c>
       <c r="H26" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44166</v>
+      </c>
+      <c r="F27" s="7">
+        <v>250</v>
+      </c>
+      <c r="G27" s="7">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/images/projects/Project List.xlsx
+++ b/images/projects/Project List.xlsx
@@ -231,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,22 +254,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +578,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,22 +1231,25 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="4">
         <v>44166</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="2">
         <v>250</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="2">
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">

--- a/images/projects/Project List.xlsx
+++ b/images/projects/Project List.xlsx
@@ -177,9 +177,6 @@
     <t>Project 3</t>
   </si>
   <si>
-    <t>Project 4</t>
-  </si>
-  <si>
     <t>Vadavli Section</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Landscape Heritage</t>
+  </si>
+  <si>
+    <t>Ishwar Enclave</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -831,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -962,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -987,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1008,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1235,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
